--- a/1.Bien ban cuoc hop.xlsx
+++ b/1.Bien ban cuoc hop.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Week 01" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Week 02" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Week 03" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Week 04" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t xml:space="preserve">Chuẩn bị (Nhóm đánh giá)</t>
   </si>
@@ -78,7 +80,7 @@
     <t xml:space="preserve">Tính trên thang điểm 10</t>
   </si>
   <si>
-    <t xml:space="preserve">15h05-17h30 – 08/05/2024</t>
+    <t xml:space="preserve">17h15-17h30 – 08/05/2024</t>
   </si>
   <si>
     <t xml:space="preserve">BIÊN BẢNG NHẬN XÉT CÁC THÀNH VIÊN BUỔI HỌP</t>
@@ -151,6 +153,63 @@
   </si>
   <si>
     <t xml:space="preserve">Bùi Việt Anh(PH43899)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17h15-17h30 – 13/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo UserStory, SprintBacklog, Tạo Sprint trên Trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo và phân công công việc cho thành viên trên Trello, theo dõi dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế sơ đồ ERD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code chức năng đăng kí đăng nhập cho người dùng và Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phác thảo giao diện cho App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code giao diện cho ngườ sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code giao diện cho người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17h15-17h30 – 17/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo và phân công công việc cho thành viên trên Trello, theo dõi dự án, tạo github cho dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code chức năng trang chủ, xem danh sách sản phẩm và quản lí sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test chức năng đăng kí đăng nhập cho App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code giao diện cho Trang chủ, xem danh sách sản phẩm, quản lí sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code giao diện XML cho chức năng đăng kí đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test chức năng đăng trang chủ, xem danh sách sản phẩm và quản lí sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17h15-17h30 – 22/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code chức năng xem chi tiết sản phẩm và chức năng giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code giao diện XML cho chức năng xem chi tiết sản phẩm và chức năng giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test chức năng đăng  xem chi tiết sản phẩm và chức năng giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -195,7 +254,7 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -321,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +459,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -411,66 +478,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -517,14 +524,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -532,58 +539,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -601,48 +575,12 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -656,7 +594,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -802,8 +740,8 @@
   </sheetPr>
   <dimension ref="B1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,14 +1020,279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="62.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.26"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1098,4 +1301,583 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="66.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="69.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="6.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="67.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="69.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>